--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
@@ -81625,10 +81625,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2993">
@@ -81662,10 +81660,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2994">
@@ -81695,10 +81691,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2995">
@@ -81716,10 +81710,8 @@
       <c r="D2995" t="inlineStr"/>
       <c r="E2995" t="inlineStr"/>
       <c r="F2995" t="inlineStr"/>
-      <c r="G2995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2996">
@@ -81749,10 +81741,8 @@
         </is>
       </c>
       <c r="F2996" t="inlineStr"/>
-      <c r="G2996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2997">
@@ -81778,10 +81768,8 @@
       </c>
       <c r="E2997" t="inlineStr"/>
       <c r="F2997" t="inlineStr"/>
-      <c r="G2997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2998">
@@ -81807,10 +81795,8 @@
       </c>
       <c r="E2998" t="inlineStr"/>
       <c r="F2998" t="inlineStr"/>
-      <c r="G2998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2999">
@@ -81836,10 +81822,8 @@
       </c>
       <c r="E2999" t="inlineStr"/>
       <c r="F2999" t="inlineStr"/>
-      <c r="G2999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3000">
@@ -81865,10 +81849,8 @@
       </c>
       <c r="E3000" t="inlineStr"/>
       <c r="F3000" t="inlineStr"/>
-      <c r="G3000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3001">
@@ -81894,10 +81876,8 @@
       </c>
       <c r="E3001" t="inlineStr"/>
       <c r="F3001" t="inlineStr"/>
-      <c r="G3001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3002">
@@ -81915,10 +81895,8 @@
       <c r="D3002" t="inlineStr"/>
       <c r="E3002" t="inlineStr"/>
       <c r="F3002" t="inlineStr"/>
-      <c r="G3002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G3002" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3003">

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
@@ -82579,7 +82579,11 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="E3030" t="inlineStr"/>
+      <c r="E3030" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F3030" t="inlineStr">
         <is>
           <t>0.3%</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3100"/>
+  <dimension ref="A1:G3102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82381,12 +82381,12 @@
     <row r="3022">
       <c r="A3022" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B3022" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="C3022" t="inlineStr"/>
@@ -82395,40 +82395,44 @@
       <c r="F3022" t="inlineStr"/>
       <c r="G3022" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3023">
       <c r="A3023" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B3023" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B3023" t="inlineStr">
+        <is>
+          <t>NOPA Crush Report</t>
+        </is>
+      </c>
       <c r="C3023" t="inlineStr"/>
       <c r="D3023" t="inlineStr"/>
       <c r="E3023" t="inlineStr"/>
       <c r="F3023" t="inlineStr"/>
-      <c r="G3023" t="inlineStr"/>
+      <c r="G3023" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3024">
       <c r="A3024" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:15 PM</t>
         </is>
       </c>
       <c r="B3024" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Fed Barr Speech</t>
         </is>
       </c>
       <c r="C3024" t="inlineStr"/>
-      <c r="D3024" t="inlineStr">
-        <is>
-          <t>7.1M</t>
-        </is>
-      </c>
+      <c r="D3024" t="inlineStr"/>
       <c r="E3024" t="inlineStr"/>
       <c r="F3024" t="inlineStr"/>
       <c r="G3024" t="inlineStr">
@@ -82440,50 +82444,38 @@
     <row r="3025">
       <c r="A3025" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B3025" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
-        </is>
-      </c>
+          <t>Wednesday July 16 2025</t>
+        </is>
+      </c>
+      <c r="B3025" t="inlineStr"/>
       <c r="C3025" t="inlineStr"/>
-      <c r="D3025" t="inlineStr">
-        <is>
-          <t>6.77%</t>
-        </is>
-      </c>
+      <c r="D3025" t="inlineStr"/>
       <c r="E3025" t="inlineStr"/>
       <c r="F3025" t="inlineStr"/>
-      <c r="G3025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G3025" t="inlineStr"/>
     </row>
     <row r="3026">
       <c r="A3026" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B3026" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>API Crude Oil Stock ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3026" t="inlineStr"/>
       <c r="D3026" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>7.1M</t>
         </is>
       </c>
       <c r="E3026" t="inlineStr"/>
       <c r="F3026" t="inlineStr"/>
       <c r="G3026" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82495,20 +82487,20 @@
       </c>
       <c r="B3027" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>MBA 30-Year Mortgage RateJUL/11</t>
         </is>
       </c>
       <c r="C3027" t="inlineStr"/>
       <c r="D3027" t="inlineStr">
         <is>
-          <t>281.6</t>
+          <t>6.77%</t>
         </is>
       </c>
       <c r="E3027" t="inlineStr"/>
       <c r="F3027" t="inlineStr"/>
       <c r="G3027" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82520,13 +82512,13 @@
       </c>
       <c r="B3028" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
+          <t>MBA Mortgage ApplicationsJUL/11</t>
         </is>
       </c>
       <c r="C3028" t="inlineStr"/>
       <c r="D3028" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>9.4%</t>
         </is>
       </c>
       <c r="E3028" t="inlineStr"/>
@@ -82545,13 +82537,13 @@
       </c>
       <c r="B3029" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/11</t>
+          <t>MBA Mortgage Market IndexJUL/11</t>
         </is>
       </c>
       <c r="C3029" t="inlineStr"/>
       <c r="D3029" t="inlineStr">
         <is>
-          <t>180.9</t>
+          <t>281.6</t>
         </is>
       </c>
       <c r="E3029" t="inlineStr"/>
@@ -82565,66 +82557,50 @@
     <row r="3030">
       <c r="A3030" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B3030" t="inlineStr">
         <is>
-          <t>PPI MoMJUN</t>
+          <t>MBA Mortgage Refinance IndexJUL/11</t>
         </is>
       </c>
       <c r="C3030" t="inlineStr"/>
       <c r="D3030" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3030" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F3030" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>829.3</t>
+        </is>
+      </c>
+      <c r="E3030" t="inlineStr"/>
+      <c r="F3030" t="inlineStr"/>
       <c r="G3030" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3031">
       <c r="A3031" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B3031" t="inlineStr">
         <is>
-          <t>Core PPI MoMJUN</t>
+          <t>MBA Purchase IndexJUL/11</t>
         </is>
       </c>
       <c r="C3031" t="inlineStr"/>
       <c r="D3031" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3031" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F3031" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>180.9</t>
+        </is>
+      </c>
+      <c r="E3031" t="inlineStr"/>
+      <c r="F3031" t="inlineStr"/>
       <c r="G3031" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -82636,24 +82612,28 @@
       </c>
       <c r="B3032" t="inlineStr">
         <is>
-          <t>Core PPI YoYJUN</t>
+          <t>PPI MoMJUN</t>
         </is>
       </c>
       <c r="C3032" t="inlineStr"/>
       <c r="D3032" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E3032" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E3032" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F3032" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G3032" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -82665,24 +82645,28 @@
       </c>
       <c r="B3033" t="inlineStr">
         <is>
-          <t>PPIJUN</t>
+          <t>Core PPI MoMJUN</t>
         </is>
       </c>
       <c r="C3033" t="inlineStr"/>
       <c r="D3033" t="inlineStr">
         <is>
-          <t>148.072</t>
-        </is>
-      </c>
-      <c r="E3033" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E3033" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F3033" t="inlineStr">
         <is>
-          <t>148.9</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G3033" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82694,19 +82678,19 @@
       </c>
       <c r="B3034" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
+          <t>Core PPI YoYJUN</t>
         </is>
       </c>
       <c r="C3034" t="inlineStr"/>
       <c r="D3034" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E3034" t="inlineStr"/>
       <c r="F3034" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="G3034" t="inlineStr">
@@ -82723,19 +82707,19 @@
       </c>
       <c r="B3035" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
+          <t>PPIJUN</t>
         </is>
       </c>
       <c r="C3035" t="inlineStr"/>
       <c r="D3035" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>148.072</t>
         </is>
       </c>
       <c r="E3035" t="inlineStr"/>
       <c r="F3035" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>148.9</t>
         </is>
       </c>
       <c r="G3035" t="inlineStr">
@@ -82752,19 +82736,19 @@
       </c>
       <c r="B3036" t="inlineStr">
         <is>
-          <t>PPI YoYJUN</t>
+          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
         </is>
       </c>
       <c r="C3036" t="inlineStr"/>
       <c r="D3036" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E3036" t="inlineStr"/>
       <c r="F3036" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G3036" t="inlineStr">
@@ -82776,54 +82760,58 @@
     <row r="3037">
       <c r="A3037" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3037" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
         </is>
       </c>
       <c r="C3037" t="inlineStr"/>
-      <c r="D3037" t="inlineStr"/>
+      <c r="D3037" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="E3037" t="inlineStr"/>
-      <c r="F3037" t="inlineStr"/>
+      <c r="F3037" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="G3037" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3038">
       <c r="A3038" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3038" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJUN</t>
+          <t>PPI YoYJUN</t>
         </is>
       </c>
       <c r="C3038" t="inlineStr"/>
       <c r="D3038" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E3038" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="E3038" t="inlineStr"/>
       <c r="F3038" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G3038" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -82835,28 +82823,16 @@
       </c>
       <c r="B3039" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJUN</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="C3039" t="inlineStr"/>
-      <c r="D3039" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="E3039" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="F3039" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+      <c r="D3039" t="inlineStr"/>
+      <c r="E3039" t="inlineStr"/>
+      <c r="F3039" t="inlineStr"/>
       <c r="G3039" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82868,24 +82844,28 @@
       </c>
       <c r="B3040" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJUN</t>
+          <t>Industrial Production MoMJUN</t>
         </is>
       </c>
       <c r="C3040" t="inlineStr"/>
       <c r="D3040" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E3040" t="inlineStr"/>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="E3040" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F3040" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G3040" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82897,19 +82877,23 @@
       </c>
       <c r="B3041" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJUN</t>
+          <t>Capacity UtilizationJUN</t>
         </is>
       </c>
       <c r="C3041" t="inlineStr"/>
       <c r="D3041" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3041" t="inlineStr"/>
+          <t>77.4%</t>
+        </is>
+      </c>
+      <c r="E3041" t="inlineStr">
+        <is>
+          <t>77.4%</t>
+        </is>
+      </c>
       <c r="F3041" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>77.4%</t>
         </is>
       </c>
       <c r="G3041" t="inlineStr">
@@ -82926,19 +82910,19 @@
       </c>
       <c r="B3042" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJUN</t>
+          <t>Industrial Production YoYJUN</t>
         </is>
       </c>
       <c r="C3042" t="inlineStr"/>
       <c r="D3042" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="E3042" t="inlineStr"/>
       <c r="F3042" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="G3042" t="inlineStr">
@@ -82950,50 +82934,58 @@
     <row r="3043">
       <c r="A3043" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B3043" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
+          <t>Manufacturing Production MoMJUN</t>
         </is>
       </c>
       <c r="C3043" t="inlineStr"/>
       <c r="D3043" t="inlineStr">
         <is>
-          <t>7.07M</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E3043" t="inlineStr"/>
-      <c r="F3043" t="inlineStr"/>
+      <c r="F3043" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G3043" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3044">
       <c r="A3044" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B3044" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
+          <t>Manufacturing Production YoYJUN</t>
         </is>
       </c>
       <c r="C3044" t="inlineStr"/>
       <c r="D3044" t="inlineStr">
         <is>
-          <t>-2.658M</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E3044" t="inlineStr"/>
-      <c r="F3044" t="inlineStr"/>
+      <c r="F3044" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G3044" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -83005,20 +82997,20 @@
       </c>
       <c r="B3045" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
+          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3045" t="inlineStr"/>
       <c r="D3045" t="inlineStr">
         <is>
-          <t>-1.358M</t>
+          <t>7.07M</t>
         </is>
       </c>
       <c r="E3045" t="inlineStr"/>
       <c r="F3045" t="inlineStr"/>
       <c r="G3045" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -83030,20 +83022,20 @@
       </c>
       <c r="B3046" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
+          <t>EIA Gasoline Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3046" t="inlineStr"/>
       <c r="D3046" t="inlineStr">
         <is>
-          <t>0.464M</t>
+          <t>-2.658M</t>
         </is>
       </c>
       <c r="E3046" t="inlineStr"/>
       <c r="F3046" t="inlineStr"/>
       <c r="G3046" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -83055,13 +83047,13 @@
       </c>
       <c r="B3047" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
+          <t>EIA Crude Oil Imports ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3047" t="inlineStr"/>
       <c r="D3047" t="inlineStr">
         <is>
-          <t>0.059M</t>
+          <t>-1.358M</t>
         </is>
       </c>
       <c r="E3047" t="inlineStr"/>
@@ -83080,13 +83072,13 @@
       </c>
       <c r="B3048" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3048" t="inlineStr"/>
       <c r="D3048" t="inlineStr">
         <is>
-          <t>-0.825M</t>
+          <t>0.464M</t>
         </is>
       </c>
       <c r="E3048" t="inlineStr"/>
@@ -83105,13 +83097,13 @@
       </c>
       <c r="B3049" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
+          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3049" t="inlineStr"/>
       <c r="D3049" t="inlineStr">
         <is>
-          <t>0.278M</t>
+          <t>0.059M</t>
         </is>
       </c>
       <c r="E3049" t="inlineStr"/>
@@ -83130,13 +83122,13 @@
       </c>
       <c r="B3050" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+          <t>EIA Distillate Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3050" t="inlineStr"/>
       <c r="D3050" t="inlineStr">
         <is>
-          <t>0.603M</t>
+          <t>-0.825M</t>
         </is>
       </c>
       <c r="E3050" t="inlineStr"/>
@@ -83155,13 +83147,13 @@
       </c>
       <c r="B3051" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
+          <t>EIA Gasoline Production ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3051" t="inlineStr"/>
       <c r="D3051" t="inlineStr">
         <is>
-          <t>-0.099M</t>
+          <t>0.278M</t>
         </is>
       </c>
       <c r="E3051" t="inlineStr"/>
@@ -83175,18 +83167,18 @@
     <row r="3052">
       <c r="A3052" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3052" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3052" t="inlineStr"/>
       <c r="D3052" t="inlineStr">
         <is>
-          <t>4.230%</t>
+          <t>0.603M</t>
         </is>
       </c>
       <c r="E3052" t="inlineStr"/>
@@ -83200,16 +83192,20 @@
     <row r="3053">
       <c r="A3053" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3053" t="inlineStr">
         <is>
-          <t>Fed Beige Book</t>
+          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3053" t="inlineStr"/>
-      <c r="D3053" t="inlineStr"/>
+      <c r="D3053" t="inlineStr">
+        <is>
+          <t>-0.099M</t>
+        </is>
+      </c>
       <c r="E3053" t="inlineStr"/>
       <c r="F3053" t="inlineStr"/>
       <c r="G3053" t="inlineStr">
@@ -83221,25 +83217,37 @@
     <row r="3054">
       <c r="A3054" t="inlineStr">
         <is>
-          <t>Thursday July 17 2025</t>
-        </is>
-      </c>
-      <c r="B3054" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B3054" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C3054" t="inlineStr"/>
-      <c r="D3054" t="inlineStr"/>
+      <c r="D3054" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
       <c r="E3054" t="inlineStr"/>
       <c r="F3054" t="inlineStr"/>
-      <c r="G3054" t="inlineStr"/>
+      <c r="G3054" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3055">
       <c r="A3055" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B3055" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C3055" t="inlineStr"/>
@@ -83248,66 +83256,38 @@
       <c r="F3055" t="inlineStr"/>
       <c r="G3055" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3056">
       <c r="A3056" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3056" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJUN</t>
-        </is>
-      </c>
+          <t>Thursday July 17 2025</t>
+        </is>
+      </c>
+      <c r="B3056" t="inlineStr"/>
       <c r="C3056" t="inlineStr"/>
-      <c r="D3056" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3056" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F3056" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3056" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D3056" t="inlineStr"/>
+      <c r="E3056" t="inlineStr"/>
+      <c r="F3056" t="inlineStr"/>
+      <c r="G3056" t="inlineStr"/>
     </row>
     <row r="3057">
       <c r="A3057" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B3057" t="inlineStr">
         <is>
-          <t>Export Prices MoMJUN</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C3057" t="inlineStr"/>
-      <c r="D3057" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="D3057" t="inlineStr"/>
       <c r="E3057" t="inlineStr"/>
-      <c r="F3057" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F3057" t="inlineStr"/>
       <c r="G3057" t="inlineStr">
         <is>
           <t>2</t>
@@ -83322,24 +83302,28 @@
       </c>
       <c r="B3058" t="inlineStr">
         <is>
-          <t>Import Prices MoMJUN</t>
+          <t>Retail Sales MoMJUN</t>
         </is>
       </c>
       <c r="C3058" t="inlineStr"/>
       <c r="D3058" t="inlineStr">
         <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="E3058" t="inlineStr">
+        <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="E3058" t="inlineStr"/>
       <c r="F3058" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G3058" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -83351,19 +83335,19 @@
       </c>
       <c r="B3059" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
+          <t>Export Prices MoMJUN</t>
         </is>
       </c>
       <c r="C3059" t="inlineStr"/>
       <c r="D3059" t="inlineStr">
         <is>
-          <t>227K</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E3059" t="inlineStr"/>
       <c r="F3059" t="inlineStr">
         <is>
-          <t>230.0K</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G3059" t="inlineStr">
@@ -83380,19 +83364,19 @@
       </c>
       <c r="B3060" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
+          <t>Import Prices MoMJUN</t>
         </is>
       </c>
       <c r="C3060" t="inlineStr"/>
       <c r="D3060" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E3060" t="inlineStr"/>
       <c r="F3060" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G3060" t="inlineStr">
@@ -83409,19 +83393,19 @@
       </c>
       <c r="B3061" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJUN</t>
+          <t>Initial Jobless ClaimsJUL/12</t>
         </is>
       </c>
       <c r="C3061" t="inlineStr"/>
       <c r="D3061" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>227K</t>
         </is>
       </c>
       <c r="E3061" t="inlineStr"/>
       <c r="F3061" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>230.0K</t>
         </is>
       </c>
       <c r="G3061" t="inlineStr">
@@ -83438,23 +83422,19 @@
       </c>
       <c r="B3062" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
+          <t>Philadelphia Fed Manufacturing IndexJUL</t>
         </is>
       </c>
       <c r="C3062" t="inlineStr"/>
       <c r="D3062" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E3062" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="E3062" t="inlineStr"/>
       <c r="F3062" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="G3062" t="inlineStr">
@@ -83471,24 +83451,24 @@
       </c>
       <c r="B3063" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
+          <t>Retail Sales Control Group MoMJUN</t>
         </is>
       </c>
       <c r="C3063" t="inlineStr"/>
       <c r="D3063" t="inlineStr">
         <is>
-          <t>1965K</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E3063" t="inlineStr"/>
       <c r="F3063" t="inlineStr">
         <is>
-          <t>1970.0K</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G3063" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -83500,24 +83480,28 @@
       </c>
       <c r="B3064" t="inlineStr">
         <is>
-          <t>Export Prices YoYJUN</t>
+          <t>Retail Sales Ex Autos MoMJUN</t>
         </is>
       </c>
       <c r="C3064" t="inlineStr"/>
       <c r="D3064" t="inlineStr">
         <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E3064" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E3064" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F3064" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G3064" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -83529,19 +83513,19 @@
       </c>
       <c r="B3065" t="inlineStr">
         <is>
-          <t>Import Prices YoYJUN</t>
+          <t>Continuing Jobless ClaimsJUL/05</t>
         </is>
       </c>
       <c r="C3065" t="inlineStr"/>
       <c r="D3065" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1965K</t>
         </is>
       </c>
       <c r="E3065" t="inlineStr"/>
       <c r="F3065" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1970.0K</t>
         </is>
       </c>
       <c r="G3065" t="inlineStr">
@@ -83558,19 +83542,19 @@
       </c>
       <c r="B3066" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
+          <t>Export Prices YoYJUN</t>
         </is>
       </c>
       <c r="C3066" t="inlineStr"/>
       <c r="D3066" t="inlineStr">
         <is>
-          <t>235.5K</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="E3066" t="inlineStr"/>
       <c r="F3066" t="inlineStr">
         <is>
-          <t>237.0K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G3066" t="inlineStr">
@@ -83587,17 +83571,21 @@
       </c>
       <c r="B3067" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJUL</t>
+          <t>Import Prices YoYJUN</t>
         </is>
       </c>
       <c r="C3067" t="inlineStr"/>
       <c r="D3067" t="inlineStr">
         <is>
-          <t>18.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E3067" t="inlineStr"/>
-      <c r="F3067" t="inlineStr"/>
+      <c r="F3067" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G3067" t="inlineStr">
         <is>
           <t>3</t>
@@ -83612,17 +83600,21 @@
       </c>
       <c r="B3068" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
+          <t>Jobless Claims 4-week AverageJUL/12</t>
         </is>
       </c>
       <c r="C3068" t="inlineStr"/>
       <c r="D3068" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>235.5K</t>
         </is>
       </c>
       <c r="E3068" t="inlineStr"/>
-      <c r="F3068" t="inlineStr"/>
+      <c r="F3068" t="inlineStr">
+        <is>
+          <t>237.0K</t>
+        </is>
+      </c>
       <c r="G3068" t="inlineStr">
         <is>
           <t>3</t>
@@ -83637,13 +83629,13 @@
       </c>
       <c r="B3069" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJUL</t>
+          <t>Philly Fed Business ConditionsJUL</t>
         </is>
       </c>
       <c r="C3069" t="inlineStr"/>
       <c r="D3069" t="inlineStr">
         <is>
-          <t>-9.8</t>
+          <t>18.3</t>
         </is>
       </c>
       <c r="E3069" t="inlineStr"/>
@@ -83662,13 +83654,13 @@
       </c>
       <c r="B3070" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJUL</t>
+          <t>Philly Fed CAPEX IndexJUL</t>
         </is>
       </c>
       <c r="C3070" t="inlineStr"/>
       <c r="D3070" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="E3070" t="inlineStr"/>
@@ -83687,13 +83679,13 @@
       </c>
       <c r="B3071" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJUL</t>
+          <t>Philly Fed EmploymentJUL</t>
         </is>
       </c>
       <c r="C3071" t="inlineStr"/>
       <c r="D3071" t="inlineStr">
         <is>
-          <t>41.40</t>
+          <t>-9.8</t>
         </is>
       </c>
       <c r="E3071" t="inlineStr"/>
@@ -83712,21 +83704,17 @@
       </c>
       <c r="B3072" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
+          <t>Philly Fed New OrdersJUL</t>
         </is>
       </c>
       <c r="C3072" t="inlineStr"/>
       <c r="D3072" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E3072" t="inlineStr"/>
-      <c r="F3072" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F3072" t="inlineStr"/>
       <c r="G3072" t="inlineStr">
         <is>
           <t>3</t>
@@ -83741,21 +83729,17 @@
       </c>
       <c r="B3073" t="inlineStr">
         <is>
-          <t>Retail Sales YoYJUN</t>
+          <t>Philly Fed Prices PaidJUL</t>
         </is>
       </c>
       <c r="C3073" t="inlineStr"/>
       <c r="D3073" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="E3073" t="inlineStr"/>
-      <c r="F3073" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="F3073" t="inlineStr"/>
       <c r="G3073" t="inlineStr">
         <is>
           <t>3</t>
@@ -83765,58 +83749,58 @@
     <row r="3074">
       <c r="A3074" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3074" t="inlineStr">
         <is>
-          <t>Business Inventories MoMMAY</t>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
         </is>
       </c>
       <c r="C3074" t="inlineStr"/>
       <c r="D3074" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E3074" t="inlineStr"/>
       <c r="F3074" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G3074" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3075">
       <c r="A3075" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3075" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJUL</t>
+          <t>Retail Sales YoYJUN</t>
         </is>
       </c>
       <c r="C3075" t="inlineStr"/>
       <c r="D3075" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E3075" t="inlineStr"/>
       <c r="F3075" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="G3075" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -83828,75 +83812,83 @@
       </c>
       <c r="B3076" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C3076" t="inlineStr"/>
       <c r="D3076" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E3076" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E3076" t="inlineStr"/>
       <c r="F3076" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G3076" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3077">
       <c r="A3077" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3077" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C3077" t="inlineStr"/>
       <c r="D3077" t="inlineStr">
         <is>
-          <t>53Bcf</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E3077" t="inlineStr"/>
-      <c r="F3077" t="inlineStr"/>
+      <c r="F3077" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="G3077" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3078">
       <c r="A3078" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3078" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C3078" t="inlineStr"/>
       <c r="D3078" t="inlineStr">
         <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E3078" t="inlineStr"/>
-      <c r="F3078" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E3078" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F3078" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G3078" t="inlineStr">
         <is>
           <t>3</t>
@@ -83906,18 +83898,18 @@
     <row r="3079">
       <c r="A3079" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3079" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3079" t="inlineStr"/>
       <c r="D3079" t="inlineStr">
         <is>
-          <t>4.275%</t>
+          <t>53Bcf</t>
         </is>
       </c>
       <c r="E3079" t="inlineStr"/>
@@ -83931,18 +83923,18 @@
     <row r="3080">
       <c r="A3080" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3080" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJUL/17</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3080" t="inlineStr"/>
       <c r="D3080" t="inlineStr">
         <is>
-          <t>5.86%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E3080" t="inlineStr"/>
@@ -83956,18 +83948,18 @@
     <row r="3081">
       <c r="A3081" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3081" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJUL/17</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3081" t="inlineStr"/>
       <c r="D3081" t="inlineStr">
         <is>
-          <t>6.72%</t>
+          <t>4.275%</t>
         </is>
       </c>
       <c r="E3081" t="inlineStr"/>
@@ -83981,65 +83973,65 @@
     <row r="3082">
       <c r="A3082" t="inlineStr">
         <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B3082" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B3082" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJUL/17</t>
+        </is>
+      </c>
       <c r="C3082" t="inlineStr"/>
-      <c r="D3082" t="inlineStr"/>
+      <c r="D3082" t="inlineStr">
+        <is>
+          <t>5.86%</t>
+        </is>
+      </c>
       <c r="E3082" t="inlineStr"/>
       <c r="F3082" t="inlineStr"/>
-      <c r="G3082" t="inlineStr"/>
+      <c r="G3082" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3083">
       <c r="A3083" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B3083" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsMAY</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C3083" t="inlineStr"/>
       <c r="D3083" t="inlineStr">
         <is>
-          <t>$-7.8B</t>
+          <t>6.72%</t>
         </is>
       </c>
       <c r="E3083" t="inlineStr"/>
       <c r="F3083" t="inlineStr"/>
       <c r="G3083" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3084">
       <c r="A3084" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3084" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B3084" t="inlineStr"/>
       <c r="C3084" t="inlineStr"/>
-      <c r="D3084" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
+      <c r="D3084" t="inlineStr"/>
       <c r="E3084" t="inlineStr"/>
       <c r="F3084" t="inlineStr"/>
-      <c r="G3084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G3084" t="inlineStr"/>
     </row>
     <row r="3085">
       <c r="A3085" t="inlineStr">
@@ -84049,38 +84041,38 @@
       </c>
       <c r="B3085" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsMAY</t>
+          <t>Net Long-term TIC FlowsMAY</t>
         </is>
       </c>
       <c r="C3085" t="inlineStr"/>
       <c r="D3085" t="inlineStr">
         <is>
-          <t>$-14.2B</t>
+          <t>$-7.8B</t>
         </is>
       </c>
       <c r="E3085" t="inlineStr"/>
       <c r="F3085" t="inlineStr"/>
       <c r="G3085" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3086">
       <c r="A3086" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3086" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/16</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C3086" t="inlineStr"/>
       <c r="D3086" t="inlineStr">
         <is>
-          <t>$6.66T</t>
+          <t>$-40.8B</t>
         </is>
       </c>
       <c r="E3086" t="inlineStr"/>
@@ -84094,62 +84086,50 @@
     <row r="3087">
       <c r="A3087" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3087" t="inlineStr">
         <is>
-          <t>Building Permits PrelJUN</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C3087" t="inlineStr"/>
       <c r="D3087" t="inlineStr">
         <is>
-          <t>1.394M</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E3087" t="inlineStr"/>
-      <c r="F3087" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
+      <c r="F3087" t="inlineStr"/>
       <c r="G3087" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3088">
       <c r="A3088" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B3088" t="inlineStr">
         <is>
-          <t>Housing StartsJUN</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C3088" t="inlineStr"/>
       <c r="D3088" t="inlineStr">
         <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E3088" t="inlineStr">
-        <is>
-          <t>1.30M</t>
-        </is>
-      </c>
-      <c r="F3088" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
+          <t>$6.66T</t>
+        </is>
+      </c>
+      <c r="E3088" t="inlineStr"/>
+      <c r="F3088" t="inlineStr"/>
       <c r="G3088" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -84161,24 +84141,24 @@
       </c>
       <c r="B3089" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelJUN</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C3089" t="inlineStr"/>
       <c r="D3089" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E3089" t="inlineStr"/>
       <c r="F3089" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>1.37M</t>
         </is>
       </c>
       <c r="G3089" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -84190,86 +84170,86 @@
       </c>
       <c r="B3090" t="inlineStr">
         <is>
-          <t>Housing Starts MoMJUN</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C3090" t="inlineStr"/>
       <c r="D3090" t="inlineStr">
         <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E3090" t="inlineStr"/>
+          <t>1.256M</t>
+        </is>
+      </c>
+      <c r="E3090" t="inlineStr">
+        <is>
+          <t>1.30M</t>
+        </is>
+      </c>
       <c r="F3090" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>1.29M</t>
         </is>
       </c>
       <c r="G3090" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3091">
       <c r="A3091" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3091" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C3091" t="inlineStr"/>
       <c r="D3091" t="inlineStr">
         <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E3091" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
+          <t>-2%</t>
+        </is>
+      </c>
+      <c r="E3091" t="inlineStr"/>
       <c r="F3091" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G3091" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3092">
       <c r="A3092" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3092" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C3092" t="inlineStr"/>
       <c r="D3092" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="E3092" t="inlineStr"/>
       <c r="F3092" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G3092" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -84281,24 +84261,28 @@
       </c>
       <c r="B3093" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C3093" t="inlineStr"/>
       <c r="D3093" t="inlineStr">
         <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E3093" t="inlineStr"/>
+          <t>60.7</t>
+        </is>
+      </c>
+      <c r="E3093" t="inlineStr">
+        <is>
+          <t>61.5</t>
+        </is>
+      </c>
       <c r="F3093" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="G3093" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -84310,19 +84294,19 @@
       </c>
       <c r="B3094" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJUL</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3094" t="inlineStr"/>
       <c r="D3094" t="inlineStr">
         <is>
-          <t>64.8</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E3094" t="inlineStr"/>
       <c r="F3094" t="inlineStr">
         <is>
-          <t>64.6</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G3094" t="inlineStr">
@@ -84339,19 +84323,19 @@
       </c>
       <c r="B3095" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
+          <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3095" t="inlineStr"/>
       <c r="D3095" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="E3095" t="inlineStr"/>
       <c r="F3095" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G3095" t="inlineStr">
@@ -84363,18 +84347,26 @@
     <row r="3096">
       <c r="A3096" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3096" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C3096" t="inlineStr"/>
-      <c r="D3096" t="inlineStr"/>
+      <c r="D3096" t="inlineStr">
+        <is>
+          <t>64.8</t>
+        </is>
+      </c>
       <c r="E3096" t="inlineStr"/>
-      <c r="F3096" t="inlineStr"/>
+      <c r="F3096" t="inlineStr">
+        <is>
+          <t>64.6</t>
+        </is>
+      </c>
       <c r="G3096" t="inlineStr">
         <is>
           <t>3</t>
@@ -84384,18 +84376,26 @@
     <row r="3097">
       <c r="A3097" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3097" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3097" t="inlineStr"/>
-      <c r="D3097" t="inlineStr"/>
+      <c r="D3097" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="E3097" t="inlineStr"/>
-      <c r="F3097" t="inlineStr"/>
+      <c r="F3097" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="G3097" t="inlineStr">
         <is>
           <t>3</t>
@@ -84405,33 +84405,49 @@
     <row r="3098">
       <c r="A3098" t="inlineStr">
         <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B3098" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B3098" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
+        </is>
+      </c>
       <c r="C3098" t="inlineStr"/>
       <c r="D3098" t="inlineStr"/>
       <c r="E3098" t="inlineStr"/>
       <c r="F3098" t="inlineStr"/>
-      <c r="G3098" t="inlineStr"/>
+      <c r="G3098" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3099">
       <c r="A3099" t="inlineStr">
         <is>
-          <t>Sunday July 20 2025</t>
-        </is>
-      </c>
-      <c r="B3099" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B3099" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
+        </is>
+      </c>
       <c r="C3099" t="inlineStr"/>
       <c r="D3099" t="inlineStr"/>
       <c r="E3099" t="inlineStr"/>
       <c r="F3099" t="inlineStr"/>
-      <c r="G3099" t="inlineStr"/>
+      <c r="G3099" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3100">
       <c r="A3100" t="inlineStr">
         <is>
-          <t>Monday July 21 2025</t>
+          <t>Saturday July 19 2025</t>
         </is>
       </c>
       <c r="B3100" t="inlineStr"/>
@@ -84441,6 +84457,32 @@
       <c r="F3100" t="inlineStr"/>
       <c r="G3100" t="inlineStr"/>
     </row>
+    <row r="3101">
+      <c r="A3101" t="inlineStr">
+        <is>
+          <t>Sunday July 20 2025</t>
+        </is>
+      </c>
+      <c r="B3101" t="inlineStr"/>
+      <c r="C3101" t="inlineStr"/>
+      <c r="D3101" t="inlineStr"/>
+      <c r="E3101" t="inlineStr"/>
+      <c r="F3101" t="inlineStr"/>
+      <c r="G3101" t="inlineStr"/>
+    </row>
+    <row r="3102">
+      <c r="A3102" t="inlineStr">
+        <is>
+          <t>Monday July 21 2025</t>
+        </is>
+      </c>
+      <c r="B3102" t="inlineStr"/>
+      <c r="C3102" t="inlineStr"/>
+      <c r="D3102" t="inlineStr"/>
+      <c r="E3102" t="inlineStr"/>
+      <c r="F3102" t="inlineStr"/>
+      <c r="G3102" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3102"/>
+  <dimension ref="A1:G3108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82457,20 +82457,16 @@
     <row r="3026">
       <c r="A3026" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>12:15 AM</t>
         </is>
       </c>
       <c r="B3026" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Fed Collins Speech</t>
         </is>
       </c>
       <c r="C3026" t="inlineStr"/>
-      <c r="D3026" t="inlineStr">
-        <is>
-          <t>7.1M</t>
-        </is>
-      </c>
+      <c r="D3026" t="inlineStr"/>
       <c r="E3026" t="inlineStr"/>
       <c r="F3026" t="inlineStr"/>
       <c r="G3026" t="inlineStr">
@@ -82482,18 +82478,18 @@
     <row r="3027">
       <c r="A3027" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B3027" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>API Crude Oil Stock ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3027" t="inlineStr"/>
       <c r="D3027" t="inlineStr">
         <is>
-          <t>6.77%</t>
+          <t>7.1M</t>
         </is>
       </c>
       <c r="E3027" t="inlineStr"/>
@@ -82507,25 +82503,21 @@
     <row r="3028">
       <c r="A3028" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:15 AM</t>
         </is>
       </c>
       <c r="B3028" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>Fed Logan Speech</t>
         </is>
       </c>
       <c r="C3028" t="inlineStr"/>
-      <c r="D3028" t="inlineStr">
-        <is>
-          <t>9.4%</t>
-        </is>
-      </c>
+      <c r="D3028" t="inlineStr"/>
       <c r="E3028" t="inlineStr"/>
       <c r="F3028" t="inlineStr"/>
       <c r="G3028" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82537,20 +82529,20 @@
       </c>
       <c r="B3029" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>MBA 30-Year Mortgage RateJUL/11</t>
         </is>
       </c>
       <c r="C3029" t="inlineStr"/>
       <c r="D3029" t="inlineStr">
         <is>
-          <t>281.6</t>
+          <t>6.77%</t>
         </is>
       </c>
       <c r="E3029" t="inlineStr"/>
       <c r="F3029" t="inlineStr"/>
       <c r="G3029" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82562,13 +82554,13 @@
       </c>
       <c r="B3030" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
+          <t>MBA Mortgage ApplicationsJUL/11</t>
         </is>
       </c>
       <c r="C3030" t="inlineStr"/>
       <c r="D3030" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>9.4%</t>
         </is>
       </c>
       <c r="E3030" t="inlineStr"/>
@@ -82587,13 +82579,13 @@
       </c>
       <c r="B3031" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/11</t>
+          <t>MBA Mortgage Market IndexJUL/11</t>
         </is>
       </c>
       <c r="C3031" t="inlineStr"/>
       <c r="D3031" t="inlineStr">
         <is>
-          <t>180.9</t>
+          <t>281.6</t>
         </is>
       </c>
       <c r="E3031" t="inlineStr"/>
@@ -82607,66 +82599,50 @@
     <row r="3032">
       <c r="A3032" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B3032" t="inlineStr">
         <is>
-          <t>PPI MoMJUN</t>
+          <t>MBA Mortgage Refinance IndexJUL/11</t>
         </is>
       </c>
       <c r="C3032" t="inlineStr"/>
       <c r="D3032" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3032" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F3032" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>829.3</t>
+        </is>
+      </c>
+      <c r="E3032" t="inlineStr"/>
+      <c r="F3032" t="inlineStr"/>
       <c r="G3032" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3033">
       <c r="A3033" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B3033" t="inlineStr">
         <is>
-          <t>Core PPI MoMJUN</t>
+          <t>MBA Purchase IndexJUL/11</t>
         </is>
       </c>
       <c r="C3033" t="inlineStr"/>
       <c r="D3033" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3033" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F3033" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>180.9</t>
+        </is>
+      </c>
+      <c r="E3033" t="inlineStr"/>
+      <c r="F3033" t="inlineStr"/>
       <c r="G3033" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -82678,24 +82654,28 @@
       </c>
       <c r="B3034" t="inlineStr">
         <is>
-          <t>Core PPI YoYJUN</t>
+          <t>PPI MoMJUN</t>
         </is>
       </c>
       <c r="C3034" t="inlineStr"/>
       <c r="D3034" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E3034" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E3034" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F3034" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G3034" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -82707,24 +82687,28 @@
       </c>
       <c r="B3035" t="inlineStr">
         <is>
-          <t>PPIJUN</t>
+          <t>Core PPI MoMJUN</t>
         </is>
       </c>
       <c r="C3035" t="inlineStr"/>
       <c r="D3035" t="inlineStr">
         <is>
-          <t>148.072</t>
-        </is>
-      </c>
-      <c r="E3035" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E3035" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F3035" t="inlineStr">
         <is>
-          <t>148.9</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G3035" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82736,19 +82720,19 @@
       </c>
       <c r="B3036" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
+          <t>Core PPI YoYJUN</t>
         </is>
       </c>
       <c r="C3036" t="inlineStr"/>
       <c r="D3036" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E3036" t="inlineStr"/>
       <c r="F3036" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="G3036" t="inlineStr">
@@ -82765,19 +82749,19 @@
       </c>
       <c r="B3037" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
+          <t>PPIJUN</t>
         </is>
       </c>
       <c r="C3037" t="inlineStr"/>
       <c r="D3037" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>148.072</t>
         </is>
       </c>
       <c r="E3037" t="inlineStr"/>
       <c r="F3037" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>148.9</t>
         </is>
       </c>
       <c r="G3037" t="inlineStr">
@@ -82794,19 +82778,19 @@
       </c>
       <c r="B3038" t="inlineStr">
         <is>
-          <t>PPI YoYJUN</t>
+          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
         </is>
       </c>
       <c r="C3038" t="inlineStr"/>
       <c r="D3038" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E3038" t="inlineStr"/>
       <c r="F3038" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G3038" t="inlineStr">
@@ -82818,54 +82802,58 @@
     <row r="3039">
       <c r="A3039" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3039" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
         </is>
       </c>
       <c r="C3039" t="inlineStr"/>
-      <c r="D3039" t="inlineStr"/>
+      <c r="D3039" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="E3039" t="inlineStr"/>
-      <c r="F3039" t="inlineStr"/>
+      <c r="F3039" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="G3039" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3040">
       <c r="A3040" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3040" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJUN</t>
+          <t>PPI YoYJUN</t>
         </is>
       </c>
       <c r="C3040" t="inlineStr"/>
       <c r="D3040" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E3040" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="E3040" t="inlineStr"/>
       <c r="F3040" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G3040" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -82877,28 +82865,16 @@
       </c>
       <c r="B3041" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJUN</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="C3041" t="inlineStr"/>
-      <c r="D3041" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="E3041" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="F3041" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+      <c r="D3041" t="inlineStr"/>
+      <c r="E3041" t="inlineStr"/>
+      <c r="F3041" t="inlineStr"/>
       <c r="G3041" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82910,24 +82886,28 @@
       </c>
       <c r="B3042" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJUN</t>
+          <t>Industrial Production MoMJUN</t>
         </is>
       </c>
       <c r="C3042" t="inlineStr"/>
       <c r="D3042" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E3042" t="inlineStr"/>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="E3042" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F3042" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G3042" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82939,19 +82919,23 @@
       </c>
       <c r="B3043" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJUN</t>
+          <t>Capacity UtilizationJUN</t>
         </is>
       </c>
       <c r="C3043" t="inlineStr"/>
       <c r="D3043" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3043" t="inlineStr"/>
+          <t>77.4%</t>
+        </is>
+      </c>
+      <c r="E3043" t="inlineStr">
+        <is>
+          <t>77.4%</t>
+        </is>
+      </c>
       <c r="F3043" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>77.4%</t>
         </is>
       </c>
       <c r="G3043" t="inlineStr">
@@ -82968,19 +82952,19 @@
       </c>
       <c r="B3044" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJUN</t>
+          <t>Industrial Production YoYJUN</t>
         </is>
       </c>
       <c r="C3044" t="inlineStr"/>
       <c r="D3044" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="E3044" t="inlineStr"/>
       <c r="F3044" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="G3044" t="inlineStr">
@@ -82992,75 +82976,79 @@
     <row r="3045">
       <c r="A3045" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B3045" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
+          <t>Manufacturing Production MoMJUN</t>
         </is>
       </c>
       <c r="C3045" t="inlineStr"/>
       <c r="D3045" t="inlineStr">
         <is>
-          <t>7.07M</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E3045" t="inlineStr"/>
-      <c r="F3045" t="inlineStr"/>
+      <c r="F3045" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G3045" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3046">
       <c r="A3046" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B3046" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
+          <t>Manufacturing Production YoYJUN</t>
         </is>
       </c>
       <c r="C3046" t="inlineStr"/>
       <c r="D3046" t="inlineStr">
         <is>
-          <t>-2.658M</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E3046" t="inlineStr"/>
-      <c r="F3046" t="inlineStr"/>
+      <c r="F3046" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G3046" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3047">
       <c r="A3047" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3047" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
+          <t>Fed Barr Speech</t>
         </is>
       </c>
       <c r="C3047" t="inlineStr"/>
-      <c r="D3047" t="inlineStr">
-        <is>
-          <t>-1.358M</t>
-        </is>
-      </c>
+      <c r="D3047" t="inlineStr"/>
       <c r="E3047" t="inlineStr"/>
       <c r="F3047" t="inlineStr"/>
       <c r="G3047" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -83072,20 +83060,20 @@
       </c>
       <c r="B3048" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
+          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3048" t="inlineStr"/>
       <c r="D3048" t="inlineStr">
         <is>
-          <t>0.464M</t>
+          <t>7.07M</t>
         </is>
       </c>
       <c r="E3048" t="inlineStr"/>
       <c r="F3048" t="inlineStr"/>
       <c r="G3048" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -83097,20 +83085,20 @@
       </c>
       <c r="B3049" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
+          <t>EIA Gasoline Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3049" t="inlineStr"/>
       <c r="D3049" t="inlineStr">
         <is>
-          <t>0.059M</t>
+          <t>-2.658M</t>
         </is>
       </c>
       <c r="E3049" t="inlineStr"/>
       <c r="F3049" t="inlineStr"/>
       <c r="G3049" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -83122,13 +83110,13 @@
       </c>
       <c r="B3050" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
+          <t>EIA Crude Oil Imports ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3050" t="inlineStr"/>
       <c r="D3050" t="inlineStr">
         <is>
-          <t>-0.825M</t>
+          <t>-1.358M</t>
         </is>
       </c>
       <c r="E3050" t="inlineStr"/>
@@ -83147,13 +83135,13 @@
       </c>
       <c r="B3051" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3051" t="inlineStr"/>
       <c r="D3051" t="inlineStr">
         <is>
-          <t>0.278M</t>
+          <t>0.464M</t>
         </is>
       </c>
       <c r="E3051" t="inlineStr"/>
@@ -83172,13 +83160,13 @@
       </c>
       <c r="B3052" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3052" t="inlineStr"/>
       <c r="D3052" t="inlineStr">
         <is>
-          <t>0.603M</t>
+          <t>0.059M</t>
         </is>
       </c>
       <c r="E3052" t="inlineStr"/>
@@ -83197,13 +83185,13 @@
       </c>
       <c r="B3053" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
+          <t>EIA Distillate Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3053" t="inlineStr"/>
       <c r="D3053" t="inlineStr">
         <is>
-          <t>-0.099M</t>
+          <t>-0.825M</t>
         </is>
       </c>
       <c r="E3053" t="inlineStr"/>
@@ -83217,18 +83205,18 @@
     <row r="3054">
       <c r="A3054" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3054" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Gasoline Production ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3054" t="inlineStr"/>
       <c r="D3054" t="inlineStr">
         <is>
-          <t>4.230%</t>
+          <t>0.278M</t>
         </is>
       </c>
       <c r="E3054" t="inlineStr"/>
@@ -83242,16 +83230,20 @@
     <row r="3055">
       <c r="A3055" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3055" t="inlineStr">
         <is>
-          <t>Fed Beige Book</t>
+          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3055" t="inlineStr"/>
-      <c r="D3055" t="inlineStr"/>
+      <c r="D3055" t="inlineStr">
+        <is>
+          <t>0.603M</t>
+        </is>
+      </c>
       <c r="E3055" t="inlineStr"/>
       <c r="F3055" t="inlineStr"/>
       <c r="G3055" t="inlineStr">
@@ -83263,122 +83255,102 @@
     <row r="3056">
       <c r="A3056" t="inlineStr">
         <is>
-          <t>Thursday July 17 2025</t>
-        </is>
-      </c>
-      <c r="B3056" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B3056" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C3056" t="inlineStr"/>
-      <c r="D3056" t="inlineStr"/>
+      <c r="D3056" t="inlineStr">
+        <is>
+          <t>-0.099M</t>
+        </is>
+      </c>
       <c r="E3056" t="inlineStr"/>
       <c r="F3056" t="inlineStr"/>
-      <c r="G3056" t="inlineStr"/>
+      <c r="G3056" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3057">
       <c r="A3057" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3057" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3057" t="inlineStr"/>
-      <c r="D3057" t="inlineStr"/>
+      <c r="D3057" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
       <c r="E3057" t="inlineStr"/>
       <c r="F3057" t="inlineStr"/>
       <c r="G3057" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3058">
       <c r="A3058" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B3058" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJUN</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C3058" t="inlineStr"/>
-      <c r="D3058" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3058" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F3058" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D3058" t="inlineStr"/>
+      <c r="E3058" t="inlineStr"/>
+      <c r="F3058" t="inlineStr"/>
       <c r="G3058" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3059">
       <c r="A3059" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3059" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJUN</t>
-        </is>
-      </c>
+          <t>Thursday July 17 2025</t>
+        </is>
+      </c>
+      <c r="B3059" t="inlineStr"/>
       <c r="C3059" t="inlineStr"/>
-      <c r="D3059" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="D3059" t="inlineStr"/>
       <c r="E3059" t="inlineStr"/>
-      <c r="F3059" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F3059" t="inlineStr"/>
+      <c r="G3059" t="inlineStr"/>
     </row>
     <row r="3060">
       <c r="A3060" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B3060" t="inlineStr">
         <is>
-          <t>Import Prices MoMJUN</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C3060" t="inlineStr"/>
-      <c r="D3060" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="D3060" t="inlineStr"/>
       <c r="E3060" t="inlineStr"/>
-      <c r="F3060" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F3060" t="inlineStr"/>
       <c r="G3060" t="inlineStr">
         <is>
           <t>2</t>
@@ -83393,24 +83365,28 @@
       </c>
       <c r="B3061" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
+          <t>Retail Sales MoMJUN</t>
         </is>
       </c>
       <c r="C3061" t="inlineStr"/>
       <c r="D3061" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E3061" t="inlineStr"/>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="E3061" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F3061" t="inlineStr">
         <is>
-          <t>230.0K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G3061" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -83422,19 +83398,19 @@
       </c>
       <c r="B3062" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
+          <t>Export Prices MoMJUN</t>
         </is>
       </c>
       <c r="C3062" t="inlineStr"/>
       <c r="D3062" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E3062" t="inlineStr"/>
       <c r="F3062" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G3062" t="inlineStr">
@@ -83451,19 +83427,19 @@
       </c>
       <c r="B3063" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJUN</t>
+          <t>Import Prices MoMJUN</t>
         </is>
       </c>
       <c r="C3063" t="inlineStr"/>
       <c r="D3063" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E3063" t="inlineStr"/>
       <c r="F3063" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G3063" t="inlineStr">
@@ -83480,23 +83456,19 @@
       </c>
       <c r="B3064" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
+          <t>Initial Jobless ClaimsJUL/12</t>
         </is>
       </c>
       <c r="C3064" t="inlineStr"/>
       <c r="D3064" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E3064" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E3064" t="inlineStr"/>
       <c r="F3064" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>230.0K</t>
         </is>
       </c>
       <c r="G3064" t="inlineStr">
@@ -83513,24 +83485,24 @@
       </c>
       <c r="B3065" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
+          <t>Philadelphia Fed Manufacturing IndexJUL</t>
         </is>
       </c>
       <c r="C3065" t="inlineStr"/>
       <c r="D3065" t="inlineStr">
         <is>
-          <t>1965K</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="E3065" t="inlineStr"/>
       <c r="F3065" t="inlineStr">
         <is>
-          <t>1970.0K</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="G3065" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -83542,24 +83514,24 @@
       </c>
       <c r="B3066" t="inlineStr">
         <is>
-          <t>Export Prices YoYJUN</t>
+          <t>Retail Sales Control Group MoMJUN</t>
         </is>
       </c>
       <c r="C3066" t="inlineStr"/>
       <c r="D3066" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E3066" t="inlineStr"/>
       <c r="F3066" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G3066" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -83571,24 +83543,28 @@
       </c>
       <c r="B3067" t="inlineStr">
         <is>
-          <t>Import Prices YoYJUN</t>
+          <t>Retail Sales Ex Autos MoMJUN</t>
         </is>
       </c>
       <c r="C3067" t="inlineStr"/>
       <c r="D3067" t="inlineStr">
         <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E3067" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F3067" t="inlineStr">
+        <is>
           <t>0.2%</t>
         </is>
       </c>
-      <c r="E3067" t="inlineStr"/>
-      <c r="F3067" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
       <c r="G3067" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -83600,19 +83576,19 @@
       </c>
       <c r="B3068" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
+          <t>Continuing Jobless ClaimsJUL/05</t>
         </is>
       </c>
       <c r="C3068" t="inlineStr"/>
       <c r="D3068" t="inlineStr">
         <is>
-          <t>235.5K</t>
+          <t>1965K</t>
         </is>
       </c>
       <c r="E3068" t="inlineStr"/>
       <c r="F3068" t="inlineStr">
         <is>
-          <t>237.0K</t>
+          <t>1970.0K</t>
         </is>
       </c>
       <c r="G3068" t="inlineStr">
@@ -83629,17 +83605,21 @@
       </c>
       <c r="B3069" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJUL</t>
+          <t>Export Prices YoYJUN</t>
         </is>
       </c>
       <c r="C3069" t="inlineStr"/>
       <c r="D3069" t="inlineStr">
         <is>
-          <t>18.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="E3069" t="inlineStr"/>
-      <c r="F3069" t="inlineStr"/>
+      <c r="F3069" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="G3069" t="inlineStr">
         <is>
           <t>3</t>
@@ -83654,17 +83634,21 @@
       </c>
       <c r="B3070" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
+          <t>Import Prices YoYJUN</t>
         </is>
       </c>
       <c r="C3070" t="inlineStr"/>
       <c r="D3070" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E3070" t="inlineStr"/>
-      <c r="F3070" t="inlineStr"/>
+      <c r="F3070" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G3070" t="inlineStr">
         <is>
           <t>3</t>
@@ -83679,17 +83663,21 @@
       </c>
       <c r="B3071" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJUL</t>
+          <t>Jobless Claims 4-week AverageJUL/12</t>
         </is>
       </c>
       <c r="C3071" t="inlineStr"/>
       <c r="D3071" t="inlineStr">
         <is>
-          <t>-9.8</t>
+          <t>235.5K</t>
         </is>
       </c>
       <c r="E3071" t="inlineStr"/>
-      <c r="F3071" t="inlineStr"/>
+      <c r="F3071" t="inlineStr">
+        <is>
+          <t>237.0K</t>
+        </is>
+      </c>
       <c r="G3071" t="inlineStr">
         <is>
           <t>3</t>
@@ -83704,13 +83692,13 @@
       </c>
       <c r="B3072" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJUL</t>
+          <t>Philly Fed Business ConditionsJUL</t>
         </is>
       </c>
       <c r="C3072" t="inlineStr"/>
       <c r="D3072" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>18.3</t>
         </is>
       </c>
       <c r="E3072" t="inlineStr"/>
@@ -83729,13 +83717,13 @@
       </c>
       <c r="B3073" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJUL</t>
+          <t>Philly Fed CAPEX IndexJUL</t>
         </is>
       </c>
       <c r="C3073" t="inlineStr"/>
       <c r="D3073" t="inlineStr">
         <is>
-          <t>41.40</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="E3073" t="inlineStr"/>
@@ -83754,21 +83742,17 @@
       </c>
       <c r="B3074" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
+          <t>Philly Fed EmploymentJUL</t>
         </is>
       </c>
       <c r="C3074" t="inlineStr"/>
       <c r="D3074" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-9.8</t>
         </is>
       </c>
       <c r="E3074" t="inlineStr"/>
-      <c r="F3074" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F3074" t="inlineStr"/>
       <c r="G3074" t="inlineStr">
         <is>
           <t>3</t>
@@ -83783,21 +83767,17 @@
       </c>
       <c r="B3075" t="inlineStr">
         <is>
-          <t>Retail Sales YoYJUN</t>
+          <t>Philly Fed New OrdersJUL</t>
         </is>
       </c>
       <c r="C3075" t="inlineStr"/>
       <c r="D3075" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E3075" t="inlineStr"/>
-      <c r="F3075" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="F3075" t="inlineStr"/>
       <c r="G3075" t="inlineStr">
         <is>
           <t>3</t>
@@ -83807,86 +83787,78 @@
     <row r="3076">
       <c r="A3076" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3076" t="inlineStr">
         <is>
-          <t>Business Inventories MoMMAY</t>
+          <t>Philly Fed Prices PaidJUL</t>
         </is>
       </c>
       <c r="C3076" t="inlineStr"/>
       <c r="D3076" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="E3076" t="inlineStr"/>
-      <c r="F3076" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F3076" t="inlineStr"/>
       <c r="G3076" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3077">
       <c r="A3077" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3077" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJUL</t>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
         </is>
       </c>
       <c r="C3077" t="inlineStr"/>
       <c r="D3077" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E3077" t="inlineStr"/>
       <c r="F3077" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G3077" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3078">
       <c r="A3078" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3078" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
+          <t>Retail Sales YoYJUN</t>
         </is>
       </c>
       <c r="C3078" t="inlineStr"/>
       <c r="D3078" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E3078" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E3078" t="inlineStr"/>
       <c r="F3078" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="G3078" t="inlineStr">
@@ -83898,97 +83870,109 @@
     <row r="3079">
       <c r="A3079" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3079" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C3079" t="inlineStr"/>
       <c r="D3079" t="inlineStr">
         <is>
-          <t>53Bcf</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E3079" t="inlineStr"/>
-      <c r="F3079" t="inlineStr"/>
+      <c r="F3079" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G3079" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3080">
       <c r="A3080" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3080" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C3080" t="inlineStr"/>
-      <c r="D3080" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
+      <c r="D3080" t="inlineStr"/>
       <c r="E3080" t="inlineStr"/>
       <c r="F3080" t="inlineStr"/>
       <c r="G3080" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3081">
       <c r="A3081" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3081" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C3081" t="inlineStr"/>
       <c r="D3081" t="inlineStr">
         <is>
-          <t>4.275%</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E3081" t="inlineStr"/>
-      <c r="F3081" t="inlineStr"/>
+      <c r="F3081" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="G3081" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3082">
       <c r="A3082" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3082" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJUL/17</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C3082" t="inlineStr"/>
       <c r="D3082" t="inlineStr">
         <is>
-          <t>5.86%</t>
-        </is>
-      </c>
-      <c r="E3082" t="inlineStr"/>
-      <c r="F3082" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E3082" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F3082" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G3082" t="inlineStr">
         <is>
           <t>3</t>
@@ -83998,18 +83982,18 @@
     <row r="3083">
       <c r="A3083" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3083" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJUL/17</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3083" t="inlineStr"/>
       <c r="D3083" t="inlineStr">
         <is>
-          <t>6.72%</t>
+          <t>53Bcf</t>
         </is>
       </c>
       <c r="E3083" t="inlineStr"/>
@@ -84023,56 +84007,68 @@
     <row r="3084">
       <c r="A3084" t="inlineStr">
         <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B3084" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B3084" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C3084" t="inlineStr"/>
-      <c r="D3084" t="inlineStr"/>
+      <c r="D3084" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
       <c r="E3084" t="inlineStr"/>
       <c r="F3084" t="inlineStr"/>
-      <c r="G3084" t="inlineStr"/>
+      <c r="G3084" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3085">
       <c r="A3085" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3085" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsMAY</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3085" t="inlineStr"/>
       <c r="D3085" t="inlineStr">
         <is>
-          <t>$-7.8B</t>
+          <t>4.275%</t>
         </is>
       </c>
       <c r="E3085" t="inlineStr"/>
       <c r="F3085" t="inlineStr"/>
       <c r="G3085" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3086">
       <c r="A3086" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B3086" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentMAY</t>
+          <t>15-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C3086" t="inlineStr"/>
       <c r="D3086" t="inlineStr">
         <is>
-          <t>$-40.8B</t>
+          <t>5.86%</t>
         </is>
       </c>
       <c r="E3086" t="inlineStr"/>
@@ -84086,18 +84082,18 @@
     <row r="3087">
       <c r="A3087" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B3087" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsMAY</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C3087" t="inlineStr"/>
       <c r="D3087" t="inlineStr">
         <is>
-          <t>$-14.2B</t>
+          <t>6.72%</t>
         </is>
       </c>
       <c r="E3087" t="inlineStr"/>
@@ -84111,377 +84107,507 @@
     <row r="3088">
       <c r="A3088" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B3088" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/16</t>
+          <t>Fed Cook Speech</t>
         </is>
       </c>
       <c r="C3088" t="inlineStr"/>
-      <c r="D3088" t="inlineStr">
-        <is>
-          <t>$6.66T</t>
-        </is>
-      </c>
+      <c r="D3088" t="inlineStr"/>
       <c r="E3088" t="inlineStr"/>
       <c r="F3088" t="inlineStr"/>
       <c r="G3088" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3089">
       <c r="A3089" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3089" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B3089" t="inlineStr"/>
       <c r="C3089" t="inlineStr"/>
-      <c r="D3089" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
+      <c r="D3089" t="inlineStr"/>
       <c r="E3089" t="inlineStr"/>
-      <c r="F3089" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G3089" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F3089" t="inlineStr"/>
+      <c r="G3089" t="inlineStr"/>
     </row>
     <row r="3090">
       <c r="A3090" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3090" t="inlineStr">
         <is>
-          <t>Housing StartsJUN</t>
+          <t>Net Long-term TIC FlowsMAY</t>
         </is>
       </c>
       <c r="C3090" t="inlineStr"/>
       <c r="D3090" t="inlineStr">
         <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E3090" t="inlineStr">
-        <is>
-          <t>1.30M</t>
-        </is>
-      </c>
-      <c r="F3090" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
+          <t>$-7.8B</t>
+        </is>
+      </c>
+      <c r="E3090" t="inlineStr"/>
+      <c r="F3090" t="inlineStr"/>
       <c r="G3090" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3091">
       <c r="A3091" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3091" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelJUN</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C3091" t="inlineStr"/>
       <c r="D3091" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>$-40.8B</t>
         </is>
       </c>
       <c r="E3091" t="inlineStr"/>
-      <c r="F3091" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
+      <c r="F3091" t="inlineStr"/>
       <c r="G3091" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3092">
       <c r="A3092" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3092" t="inlineStr">
         <is>
-          <t>Housing Starts MoMJUN</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C3092" t="inlineStr"/>
       <c r="D3092" t="inlineStr">
         <is>
-          <t>-9.8%</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E3092" t="inlineStr"/>
-      <c r="F3092" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="F3092" t="inlineStr"/>
       <c r="G3092" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3093">
       <c r="A3093" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B3093" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C3093" t="inlineStr"/>
       <c r="D3093" t="inlineStr">
         <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E3093" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F3093" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
+          <t>$6.66T</t>
+        </is>
+      </c>
+      <c r="E3093" t="inlineStr"/>
+      <c r="F3093" t="inlineStr"/>
       <c r="G3093" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3094">
       <c r="A3094" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B3094" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C3094" t="inlineStr"/>
-      <c r="D3094" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+      <c r="D3094" t="inlineStr"/>
       <c r="E3094" t="inlineStr"/>
-      <c r="F3094" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="F3094" t="inlineStr"/>
       <c r="G3094" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3095">
       <c r="A3095" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3095" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C3095" t="inlineStr"/>
       <c r="D3095" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E3095" t="inlineStr"/>
       <c r="F3095" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>1.37M</t>
         </is>
       </c>
       <c r="G3095" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3096">
       <c r="A3096" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3096" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJUL</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C3096" t="inlineStr"/>
       <c r="D3096" t="inlineStr">
         <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E3096" t="inlineStr"/>
+          <t>1.256M</t>
+        </is>
+      </c>
+      <c r="E3096" t="inlineStr">
+        <is>
+          <t>1.30M</t>
+        </is>
+      </c>
       <c r="F3096" t="inlineStr">
         <is>
-          <t>64.6</t>
+          <t>1.29M</t>
         </is>
       </c>
       <c r="G3096" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3097">
       <c r="A3097" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3097" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C3097" t="inlineStr"/>
       <c r="D3097" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E3097" t="inlineStr"/>
       <c r="F3097" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G3097" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3098">
       <c r="A3098" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3098" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C3098" t="inlineStr"/>
-      <c r="D3098" t="inlineStr"/>
+      <c r="D3098" t="inlineStr">
+        <is>
+          <t>-9.8%</t>
+        </is>
+      </c>
       <c r="E3098" t="inlineStr"/>
-      <c r="F3098" t="inlineStr"/>
+      <c r="F3098" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G3098" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3099">
       <c r="A3099" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3099" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C3099" t="inlineStr"/>
-      <c r="D3099" t="inlineStr"/>
-      <c r="E3099" t="inlineStr"/>
-      <c r="F3099" t="inlineStr"/>
+      <c r="D3099" t="inlineStr">
+        <is>
+          <t>60.7</t>
+        </is>
+      </c>
+      <c r="E3099" t="inlineStr">
+        <is>
+          <t>61.5</t>
+        </is>
+      </c>
+      <c r="F3099" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="G3099" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3100">
       <c r="A3100" t="inlineStr">
         <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B3100" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B3100" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
+        </is>
+      </c>
       <c r="C3100" t="inlineStr"/>
-      <c r="D3100" t="inlineStr"/>
+      <c r="D3100" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="E3100" t="inlineStr"/>
-      <c r="F3100" t="inlineStr"/>
-      <c r="G3100" t="inlineStr"/>
+      <c r="F3100" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="G3100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3101">
       <c r="A3101" t="inlineStr">
         <is>
-          <t>Sunday July 20 2025</t>
-        </is>
-      </c>
-      <c r="B3101" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B3101" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelJUL</t>
+        </is>
+      </c>
       <c r="C3101" t="inlineStr"/>
-      <c r="D3101" t="inlineStr"/>
+      <c r="D3101" t="inlineStr">
+        <is>
+          <t>58.1</t>
+        </is>
+      </c>
       <c r="E3101" t="inlineStr"/>
-      <c r="F3101" t="inlineStr"/>
-      <c r="G3101" t="inlineStr"/>
+      <c r="F3101" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G3101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3102">
       <c r="A3102" t="inlineStr">
         <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B3102" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions PrelJUL</t>
+        </is>
+      </c>
+      <c r="C3102" t="inlineStr"/>
+      <c r="D3102" t="inlineStr">
+        <is>
+          <t>64.8</t>
+        </is>
+      </c>
+      <c r="E3102" t="inlineStr"/>
+      <c r="F3102" t="inlineStr">
+        <is>
+          <t>64.6</t>
+        </is>
+      </c>
+      <c r="G3102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3103">
+      <c r="A3103" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B3103" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations PrelJUL</t>
+        </is>
+      </c>
+      <c r="C3103" t="inlineStr"/>
+      <c r="D3103" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E3103" t="inlineStr"/>
+      <c r="F3103" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="G3103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3104">
+      <c r="A3104" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B3104" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
+        </is>
+      </c>
+      <c r="C3104" t="inlineStr"/>
+      <c r="D3104" t="inlineStr"/>
+      <c r="E3104" t="inlineStr"/>
+      <c r="F3104" t="inlineStr"/>
+      <c r="G3104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3105">
+      <c r="A3105" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B3105" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
+        </is>
+      </c>
+      <c r="C3105" t="inlineStr"/>
+      <c r="D3105" t="inlineStr"/>
+      <c r="E3105" t="inlineStr"/>
+      <c r="F3105" t="inlineStr"/>
+      <c r="G3105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3106">
+      <c r="A3106" t="inlineStr">
+        <is>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B3106" t="inlineStr"/>
+      <c r="C3106" t="inlineStr"/>
+      <c r="D3106" t="inlineStr"/>
+      <c r="E3106" t="inlineStr"/>
+      <c r="F3106" t="inlineStr"/>
+      <c r="G3106" t="inlineStr"/>
+    </row>
+    <row r="3107">
+      <c r="A3107" t="inlineStr">
+        <is>
+          <t>Sunday July 20 2025</t>
+        </is>
+      </c>
+      <c r="B3107" t="inlineStr"/>
+      <c r="C3107" t="inlineStr"/>
+      <c r="D3107" t="inlineStr"/>
+      <c r="E3107" t="inlineStr"/>
+      <c r="F3107" t="inlineStr"/>
+      <c r="G3107" t="inlineStr"/>
+    </row>
+    <row r="3108">
+      <c r="A3108" t="inlineStr">
+        <is>
           <t>Monday July 21 2025</t>
         </is>
       </c>
-      <c r="B3102" t="inlineStr"/>
-      <c r="C3102" t="inlineStr"/>
-      <c r="D3102" t="inlineStr"/>
-      <c r="E3102" t="inlineStr"/>
-      <c r="F3102" t="inlineStr"/>
-      <c r="G3102" t="inlineStr"/>
+      <c r="B3108" t="inlineStr"/>
+      <c r="C3108" t="inlineStr"/>
+      <c r="D3108" t="inlineStr"/>
+      <c r="E3108" t="inlineStr"/>
+      <c r="F3108" t="inlineStr"/>
+      <c r="G3108" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
@@ -82341,7 +82341,11 @@
           <t>-16</t>
         </is>
       </c>
-      <c r="E3020" t="inlineStr"/>
+      <c r="E3020" t="inlineStr">
+        <is>
+          <t>-10.1</t>
+        </is>
+      </c>
       <c r="F3020" t="inlineStr">
         <is>
           <t>-13</t>
@@ -83436,7 +83440,11 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="E3063" t="inlineStr"/>
+      <c r="E3063" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F3063" t="inlineStr">
         <is>
           <t>0.1%</t>
@@ -83465,7 +83473,11 @@
           <t>227K</t>
         </is>
       </c>
-      <c r="E3064" t="inlineStr"/>
+      <c r="E3064" t="inlineStr">
+        <is>
+          <t>225K</t>
+        </is>
+      </c>
       <c r="F3064" t="inlineStr">
         <is>
           <t>230.0K</t>
@@ -83494,7 +83506,11 @@
           <t>-4.0</t>
         </is>
       </c>
-      <c r="E3065" t="inlineStr"/>
+      <c r="E3065" t="inlineStr">
+        <is>
+          <t>-0.4</t>
+        </is>
+      </c>
       <c r="F3065" t="inlineStr">
         <is>
           <t>-3</t>
@@ -83884,7 +83900,11 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="E3079" t="inlineStr"/>
+      <c r="E3079" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F3079" t="inlineStr">
         <is>
           <t>-0.1%</t>
@@ -83934,7 +83954,11 @@
           <t>32</t>
         </is>
       </c>
-      <c r="E3081" t="inlineStr"/>
+      <c r="E3081" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
       <c r="F3081" t="inlineStr">
         <is>
           <t>31</t>
@@ -84276,7 +84300,11 @@
           <t>1.394M</t>
         </is>
       </c>
-      <c r="E3095" t="inlineStr"/>
+      <c r="E3095" t="inlineStr">
+        <is>
+          <t>1.39M</t>
+        </is>
+      </c>
       <c r="F3095" t="inlineStr">
         <is>
           <t>1.37M</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3108"/>
+  <dimension ref="A1:G3109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84637,6 +84637,27 @@
       <c r="F3108" t="inlineStr"/>
       <c r="G3108" t="inlineStr"/>
     </row>
+    <row r="3109">
+      <c r="A3109" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B3109" t="inlineStr">
+        <is>
+          <t>CB Leading Index MoMJUN</t>
+        </is>
+      </c>
+      <c r="C3109" t="inlineStr"/>
+      <c r="D3109" t="inlineStr"/>
+      <c r="E3109" t="inlineStr"/>
+      <c r="F3109" t="inlineStr"/>
+      <c r="G3109" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
@@ -82254,7 +82254,11 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="E3017" t="inlineStr"/>
+      <c r="E3017" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F3017" t="inlineStr">
         <is>
           <t>2.5%</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3109"/>
+  <dimension ref="A1:G3111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84662,6 +84662,48 @@
         </is>
       </c>
     </row>
+    <row r="3110">
+      <c r="A3110" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B3110" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C3110" t="inlineStr"/>
+      <c r="D3110" t="inlineStr"/>
+      <c r="E3110" t="inlineStr"/>
+      <c r="F3110" t="inlineStr"/>
+      <c r="G3110" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3111">
+      <c r="A3111" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B3111" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C3111" t="inlineStr"/>
+      <c r="D3111" t="inlineStr"/>
+      <c r="E3111" t="inlineStr"/>
+      <c r="F3111" t="inlineStr"/>
+      <c r="G3111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
@@ -81994,7 +81994,11 @@
           <t>Baker Hughes Oil Rig CountJUL/11</t>
         </is>
       </c>
-      <c r="C3007" t="inlineStr"/>
+      <c r="C3007" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
       <c r="D3007" t="inlineStr">
         <is>
           <t>425</t>
@@ -82019,7 +82023,11 @@
           <t>Baker Hughes Total Rigs CountJUL/11</t>
         </is>
       </c>
-      <c r="C3008" t="inlineStr"/>
+      <c r="C3008" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
       <c r="D3008" t="inlineStr">
         <is>
           <t>539</t>
@@ -84572,7 +84580,11 @@
         </is>
       </c>
       <c r="C3104" t="inlineStr"/>
-      <c r="D3104" t="inlineStr"/>
+      <c r="D3104" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
       <c r="E3104" t="inlineStr"/>
       <c r="F3104" t="inlineStr"/>
       <c r="G3104" t="inlineStr">
@@ -84593,7 +84605,11 @@
         </is>
       </c>
       <c r="C3105" t="inlineStr"/>
-      <c r="D3105" t="inlineStr"/>
+      <c r="D3105" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
       <c r="E3105" t="inlineStr"/>
       <c r="F3105" t="inlineStr"/>
       <c r="G3105" t="inlineStr">

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
@@ -82052,7 +82052,11 @@
           <t>Monthly Budget StatementJUN</t>
         </is>
       </c>
-      <c r="C3009" t="inlineStr"/>
+      <c r="C3009" t="inlineStr">
+        <is>
+          <t>$27B</t>
+        </is>
+      </c>
       <c r="D3009" t="inlineStr">
         <is>
           <t>$-316B</t>
